--- a/docss/trend/denmark/E_huntington.xlsx
+++ b/docss/trend/denmark/E_huntington.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\denmark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Documents\IC3\ic3desarrollo\docss\trend\denmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -239,7 +239,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1559,10 +1558,13 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1582,196 +1584,196 @@
       <c r="A2">
         <v>1999</v>
       </c>
-      <c r="B2" s="7">
-        <v>0.23853355459868908</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0.17993241548538208</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0.29118910059332848</v>
+      <c r="B2">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.18</v>
+      </c>
+      <c r="D2">
+        <v>0.29099999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2000</v>
       </c>
-      <c r="B3" s="7">
-        <v>0.27696296665817499</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0.21203369274735451</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.33377200644463301</v>
+      <c r="B3">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="C3">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.33400000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2001</v>
       </c>
-      <c r="B4" s="7">
-        <v>0.27877495903521776</v>
-      </c>
-      <c r="C4" s="7">
-        <v>3.6574915051460266E-2</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.50556314550340176</v>
+      <c r="B4">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="C4">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.50600000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2002</v>
       </c>
-      <c r="B5" s="7">
-        <v>0.24259975180029869</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.21962874010205269</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.25673067755997181</v>
+      <c r="B5">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.22</v>
+      </c>
+      <c r="D5">
+        <v>0.25700000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2003</v>
       </c>
-      <c r="B6" s="7">
-        <v>0.17061865516006947</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.1616312675178051</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.19310289062559605</v>
+      <c r="B6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.193</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2004</v>
       </c>
-      <c r="B7" s="7">
-        <v>0.3933121869340539</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0.45945190265774727</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.32656342815607786</v>
+      <c r="B7">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="C7">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="D7">
+        <v>0.32700000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2005</v>
       </c>
-      <c r="B8" s="7">
-        <v>0.2411599038168788</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.35633817128837109</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.13595583103597164</v>
+      <c r="B8">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="D8">
+        <v>0.13600000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2006</v>
       </c>
-      <c r="B9" s="7">
-        <v>0.17009121552109718</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.14154133945703506</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.19845406338572502</v>
+      <c r="B9">
+        <v>0.17</v>
+      </c>
+      <c r="C9">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.19800000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2007</v>
       </c>
-      <c r="B10" s="7">
-        <v>0.29432042315602303</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.30313542112708092</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.28391565382480621</v>
+      <c r="B10">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="C10">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D10">
+        <v>0.28399999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2008</v>
       </c>
-      <c r="B11" s="7">
-        <v>0.23482520319521427</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0.22221801802515984</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0.2395396875217557</v>
+      <c r="B11">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.222</v>
+      </c>
+      <c r="D11">
+        <v>0.24</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2009</v>
       </c>
-      <c r="B12" s="7">
-        <v>0.23809677921235561</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0.22566163167357445</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0.25315452180802822</v>
+      <c r="B12">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="C12">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="D12">
+        <v>0.253</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2010</v>
       </c>
-      <c r="B13" s="7">
-        <v>0.22947211377322674</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0.24165189452469349</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0.2216133326292038</v>
+      <c r="B13">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="C13">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="D13">
+        <v>0.222</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2011</v>
       </c>
-      <c r="B14" s="7">
-        <v>0.29914915282279253</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.17017291113734245</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0.42478031292557716</v>
+      <c r="B14">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="C14">
+        <v>0.17</v>
+      </c>
+      <c r="D14">
+        <v>0.42499999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2012</v>
       </c>
-      <c r="B15" s="7">
-        <v>0.32498391345143318</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0.31237351708114147</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0.33294403925538063</v>
+      <c r="B15">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="C15">
+        <v>0.312</v>
+      </c>
+      <c r="D15">
+        <v>0.33300000000000002</v>
       </c>
     </row>
   </sheetData>
